--- a/biology/Botanique/Epipactis_rhodanensis/Epipactis_rhodanensis.xlsx
+++ b/biology/Botanique/Epipactis_rhodanensis/Epipactis_rhodanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis rhodanensis, l’Épipactis du Rhône, est une espèce d'orchidée originaire des ripisylves de la vallée du Rhône. 
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les Alpes, elle colonise les ripisylves de peupliers et d'aulnes, jusqu'à 1 300 mètres d'altitude. En plaine, elle se complait sur des sols basiques, en altitude, sur des sols siliceux, de gneiss ou de granite[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les Alpes, elle colonise les ripisylves de peupliers et d'aulnes, jusqu'à 1 300 mètres d'altitude. En plaine, elle se complait sur des sols basiques, en altitude, sur des sols siliceux, de gneiss ou de granite.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa tige grêle atteint 20 à 50 centimètres. Elle possède des feuilles de couleur vert clair à denticulation régulière. Son inflorescence peut atteindre une vingtaine de fleurs qui se développent de la mi-juin au début juillet en plaine, et au début août en altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa tige grêle atteint 20 à 50 centimètres. Elle possède des feuilles de couleur vert clair à denticulation régulière. Son inflorescence peut atteindre une vingtaine de fleurs qui se développent de la mi-juin au début juillet en plaine, et au début août en altitude.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée possède deux hybrides : avec Epipactis atrorubens en Isère, et avec Epipactis helleborine subsp. helleborine en Isère, Loire et Rhône[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée possède deux hybrides : avec Epipactis atrorubens en Isère, et avec Epipactis helleborine subsp. helleborine en Isère, Loire et Rhône.
 </t>
         </is>
       </c>
